--- a/biology/Médecine/Glande_mammaire/Glande_mammaire.xlsx
+++ b/biology/Médecine/Glande_mammaire/Glande_mammaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les glandes mammaires sont les glandes des mamelles des mammifères mâles et femelles. Elles ont la particularité de sécréter le lait servant à l'allaitement de la progéniture.
-Les glandes mammaires sont, embryologiquement, des glandes sudoripares[réf. nécessaire] modifiées qui, initialement, protégeaient des infections les œufs de mammifères protothériens[1].
+Les glandes mammaires sont, embryologiquement, des glandes sudoripares[réf. nécessaire] modifiées qui, initialement, protégeaient des infections les œufs de mammifères protothériens.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Chez l'être humain</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Chez l'être humain, l’individu mâle aussi possède deux glandes mammaires mais elles ne sont pas développées par les canaux mammaires, puis les canaux lactifères (ou galactophores). Le sein est soutenu dans sa partie supérieure par des bandes de tissu conjonctif appelées ligaments de Cooper (en).
 La glande mammaire en lactation se caractérise par :
@@ -551,6 +565,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -576,7 +592,9 @@
           <t>Exemples</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Cochon
